--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10644" uniqueCount="432">
   <si>
     <t>jira</t>
   </si>
@@ -1349,13 +1349,22 @@
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
   </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="287" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3180,8 +3189,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="487">
+  <fills count="529">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5937,8 +6098,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="463">
+  <borders count="503">
     <border>
       <left/>
       <right/>
@@ -10438,6 +10837,394 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10445,7 +11232,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11370,40 +12157,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="468" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="468" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="277" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="474" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="474" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="477" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="477" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="480" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="480" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="480" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="480" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="489" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="495" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="498" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="501" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="501" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="510" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="516" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="519" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="522" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="522" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11938,7 +12797,7 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -12902,7 +13761,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="S52" t="s">
         <v>136</v>
@@ -12910,7 +13769,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="S53" t="s">
         <v>137</v>
@@ -12918,7 +13777,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="S54" t="s">
         <v>138</v>
@@ -12926,7 +13785,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="S55" t="s">
         <v>139</v>
@@ -12934,7 +13793,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S56" t="s">
         <v>140</v>
@@ -12942,7 +13801,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="S57" t="s">
         <v>141</v>
@@ -12950,7 +13809,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="S58" t="s">
         <v>219</v>
@@ -12958,7 +13817,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="S59" t="s">
         <v>407</v>
@@ -12966,7 +13825,7 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S60" t="s">
         <v>142</v>
@@ -12974,7 +13833,7 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="S61" t="s">
         <v>143</v>
@@ -12982,7 +13841,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="S62" t="s">
         <v>144</v>
@@ -12990,7 +13849,7 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="S63" t="s">
         <v>145</v>
@@ -12998,7 +13857,7 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="S64" t="s">
         <v>202</v>
@@ -13006,7 +13865,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="S65" t="s">
         <v>203</v>
@@ -13014,7 +13873,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="S66" t="s">
         <v>146</v>
@@ -13022,7 +13881,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="S67" t="s">
         <v>147</v>
@@ -13030,7 +13889,7 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="S68" t="s">
         <v>148</v>
@@ -13038,7 +13897,7 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="S69" t="s">
         <v>149</v>
@@ -13046,7 +13905,7 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="S70" t="s">
         <v>150</v>
@@ -13054,7 +13913,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="S71" t="s">
         <v>204</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1419,13 +1419,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2160,8 +2163,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3251,8 +3348,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5264,6 +5514,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5271,7 +5803,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5674,49 +6206,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6131,7 +6708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7343,7 +7920,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60">
@@ -7351,7 +7928,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -7359,7 +7936,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62">
@@ -7367,7 +7944,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -7375,7 +7952,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>441</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -7383,7 +7960,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -7391,7 +7968,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -7399,7 +7976,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -7407,7 +7984,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -7415,7 +7992,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -7423,7 +8000,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -7431,7 +8008,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -7439,7 +8016,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -7447,7 +8024,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -7455,7 +8032,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -7463,7 +8040,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -7471,7 +8048,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -7479,7 +8056,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -7487,7 +8064,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -7495,7 +8072,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -7503,7 +8080,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -7511,7 +8088,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7519,7 +8096,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82">
@@ -7527,7 +8104,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
@@ -7535,7 +8112,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7543,7 +8120,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7551,7 +8128,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7559,7 +8136,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7567,7 +8144,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7575,7 +8152,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7583,7 +8160,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7591,7 +8168,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -7599,7 +8176,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7607,101 +8184,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -22,16 +22,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -45,8 +45,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1422,13 +1422,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2257,8 +2281,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3501,8 +3619,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5796,6 +6067,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5803,7 +6356,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6251,49 +6804,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6708,7 +7306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7034,6 +7632,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -7127,7 +7728,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>458</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -7182,6 +7783,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>459</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -7232,6 +7836,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -7300,7 +7907,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -7335,7 +7942,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7367,7 +7974,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7395,6 +8002,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -7545,7 +8155,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -7562,7 +8172,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -7578,6 +8188,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7808,7 +8421,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46">
@@ -7816,7 +8429,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7824,7 +8437,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7832,7 +8445,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7840,7 +8453,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7848,7 +8461,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7856,7 +8469,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7864,7 +8477,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7872,7 +8485,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7880,7 +8493,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -7888,7 +8501,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -7896,7 +8509,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -7904,7 +8517,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -7912,7 +8525,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -7920,7 +8533,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -7928,7 +8541,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
@@ -7936,7 +8549,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -7944,7 +8557,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63">
@@ -7952,7 +8565,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64">
@@ -7960,7 +8573,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7968,7 +8581,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7976,7 +8589,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7984,7 +8597,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7992,7 +8605,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -8000,7 +8613,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -8008,7 +8621,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -8016,7 +8629,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -8024,7 +8637,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -8032,7 +8645,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -8040,7 +8653,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -8048,7 +8661,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -8056,7 +8669,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -8064,7 +8677,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -8072,7 +8685,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -8080,7 +8693,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -8088,7 +8701,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -8096,7 +8709,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -8104,7 +8717,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -8112,7 +8725,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
@@ -8120,7 +8733,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -8128,7 +8741,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -8136,7 +8749,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -8144,7 +8757,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -8152,7 +8765,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -8160,7 +8773,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -8168,7 +8781,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -8176,7 +8789,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -8184,106 +8797,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1452,7 +1452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2375,8 +2375,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3772,8 +3866,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6349,6 +6596,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6356,7 +6885,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6849,49 +7378,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5512" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1452,7 +1452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2469,8 +2469,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4019,8 +4113,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6878,6 +7125,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6885,7 +7414,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7423,49 +7952,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8337,7 +8911,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8393,7 +8967,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8443,7 +9017,7 @@
         <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8481,7 +9055,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -8516,7 +9090,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8548,7 +9122,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8577,7 +9151,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8604,6 +9178,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5512" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6886" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1446,13 +1446,22 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2563,8 +2572,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4266,8 +4557,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -7407,6 +8157,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7414,7 +9010,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7997,49 +9593,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8642,7 +10373,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8716,7 +10447,7 @@
         <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8787,7 +10518,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8849,7 +10580,7 @@
         <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8905,7 +10636,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8961,7 +10692,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -9013,6 +10744,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>401</v>
       </c>
@@ -9050,6 +10784,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -21,12 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6886" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1455,13 +1455,25 @@
   <si>
     <t>csv(file,worksheet,range,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2854,8 +2866,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5016,8 +5216,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9003,6 +9509,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9010,7 +10080,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9728,49 +10798,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10293,7 +11453,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -10373,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10447,7 +11607,7 @@
         <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -10518,7 +11678,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10580,7 +11740,7 @@
         <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10636,7 +11796,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10692,7 +11852,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10745,7 +11905,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
       <c r="I9" t="s">
         <v>401</v>
@@ -10786,7 +11946,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10823,6 +11983,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10855,6 +12018,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -10883,6 +12049,9 @@
       </c>
       <c r="E13" t="s">
         <v>317</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -11088,7 +12257,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -11102,7 +12271,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -11116,7 +12285,7 @@
         <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -11130,7 +12299,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -11141,7 +12310,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -11152,7 +12321,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -11163,7 +12332,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -11174,7 +12343,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -11185,7 +12354,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -11196,7 +12365,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -11207,7 +12376,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -11217,6 +12386,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="469">
   <si>
     <t>description</t>
   </si>
@@ -1467,13 +1467,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3054,8 +3060,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5522,8 +5716,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10073,6 +10573,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10080,7 +11144,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10888,49 +11952,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11345,7 +12499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12737,7 +13891,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78">
@@ -12745,7 +13899,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12753,7 +13907,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12761,7 +13915,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12769,7 +13923,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -12777,7 +13931,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12785,7 +13939,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -12793,7 +13947,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85">
@@ -12801,7 +13955,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12809,7 +13963,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12817,7 +13971,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12825,7 +13979,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12833,7 +13987,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12841,7 +13995,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12849,7 +14003,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12857,116 +14011,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9200" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1473,13 +1473,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3248,8 +3251,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6022,8 +6119,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11137,6 +11387,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11144,7 +11676,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12042,49 +12574,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12499,7 +13076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13835,7 +14412,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -13843,7 +14420,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -13851,7 +14428,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -13859,7 +14436,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -13867,7 +14444,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -13875,7 +14452,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -13883,7 +14460,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13891,7 +14468,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13899,7 +14476,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79">
@@ -13907,7 +14484,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13915,7 +14492,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13923,7 +14500,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13931,7 +14508,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -13939,7 +14516,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -13947,7 +14524,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85">
@@ -13955,7 +14532,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86">
@@ -13963,7 +14540,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -13971,7 +14548,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -13979,7 +14556,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13987,7 +14564,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -13995,7 +14572,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -14003,7 +14580,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -14011,121 +14588,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9200" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9665" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1476,13 +1476,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3345,8 +3348,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6272,8 +6369,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11669,6 +11919,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11676,7 +12208,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12619,49 +13151,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13409,7 +13986,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -13471,7 +14048,7 @@
         <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -13527,7 +14104,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -13583,7 +14160,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -13636,7 +14213,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>401</v>
@@ -13677,7 +14254,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -13715,7 +14292,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -13750,7 +14327,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -13782,7 +14359,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -13812,6 +14389,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9665" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1479,13 +1479,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3442,8 +3445,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6522,8 +6619,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12201,6 +12451,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12208,7 +12740,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13196,49 +13728,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14394,7 +14971,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14423,7 +15000,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14449,7 +15026,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -14472,7 +15049,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -14489,7 +15066,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>403</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -14506,7 +15083,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>403</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -14523,7 +15100,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -14540,7 +15117,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -14557,7 +15134,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -14572,6 +15149,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10599" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1482,13 +1482,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3539,8 +3545,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6772,8 +6872,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12733,6 +12986,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12740,7 +13275,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13773,49 +14308,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14409,7 +14989,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -14483,7 +15063,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -14554,7 +15134,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>452</v>
@@ -14619,7 +15199,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>399</v>
@@ -14675,7 +15255,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -14731,7 +15311,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -14784,7 +15364,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -14825,7 +15405,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -14863,7 +15443,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -14898,7 +15478,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -14930,7 +15510,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14962,7 +15542,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14994,7 +15574,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -15020,7 +15600,7 @@
         <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -15043,7 +15623,7 @@
         <v>423</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -15060,7 +15640,7 @@
         <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -15077,7 +15657,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -15094,7 +15674,7 @@
         <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -15111,7 +15691,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -15128,7 +15708,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -15145,7 +15725,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -15162,7 +15742,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -15176,7 +15756,7 @@
         <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -15190,7 +15770,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -15201,7 +15781,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -15212,7 +15792,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -15223,7 +15803,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -15234,7 +15814,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -15245,7 +15825,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -15256,7 +15836,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -15267,7 +15847,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -15278,7 +15858,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -15288,6 +15868,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -15296,6 +15879,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10599" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11068" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1488,13 +1488,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3639,8 +3642,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7025,8 +7122,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13268,6 +13518,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13275,7 +13807,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="383">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14353,49 +14885,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14810,7 +15387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16022,7 +16599,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
@@ -16030,7 +16607,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -16038,7 +16615,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -16046,7 +16623,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -16054,7 +16631,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -16062,7 +16639,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -16070,7 +16647,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -16078,7 +16655,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -16086,7 +16663,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62">
@@ -16094,7 +16671,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -16102,7 +16679,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64">
@@ -16110,7 +16687,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65">
@@ -16118,7 +16695,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -16126,7 +16703,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -16134,7 +16711,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -16142,7 +16719,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -16150,7 +16727,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -16158,7 +16735,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -16166,7 +16743,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72">
@@ -16174,7 +16751,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -16182,7 +16759,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -16190,7 +16767,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -16198,7 +16775,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -16206,7 +16783,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -16214,7 +16791,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -16222,7 +16799,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -16230,7 +16807,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80">
@@ -16238,7 +16815,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -16246,7 +16823,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -16254,7 +16831,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -16262,7 +16839,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -16270,7 +16847,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -16278,7 +16855,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86">
@@ -16286,7 +16863,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87">
@@ -16294,7 +16871,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -16302,7 +16879,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -16310,7 +16887,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16318,7 +16895,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16326,7 +16903,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -16334,126 +16911,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11068" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11537" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1497,7 +1497,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3736,8 +3736,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7275,8 +7369,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13800,6 +14047,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13807,7 +14336,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="398">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14930,49 +15459,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -21,36 +21,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11537" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12012" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1491,13 +1492,28 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="371" x14ac:knownFonts="1">
+  <fonts count="387" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3830,8 +3846,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7522,8 +7639,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14329,6 +14599,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14336,7 +14888,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15504,49 +16056,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="639" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15961,7 +16561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15980,75 +16580,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>423</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>424</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>407</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>425</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16060,1556 +16663,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>464</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>395</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>429</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>430</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>435</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>436</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>444</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
         <v>472</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>432</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>413</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>437</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>398</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>465</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>414</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>438</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>445</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>473</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>452</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>470</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
+      <c r="J5" t="s">
+        <v>478</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>415</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>439</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>446</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>399</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>462</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
+      <c r="J6" t="s">
+        <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>402</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>416</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>458</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>447</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>461</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
+      <c r="J7" t="s">
+        <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>434</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>459</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>448</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>418</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>449</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>419</v>
+      </c>
+      <c r="T9" t="s">
+        <v>364</v>
+      </c>
+      <c r="V9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J10" t="s">
         <v>401</v>
       </c>
-      <c r="K9" t="s">
-        <v>35</v>
+      <c r="L10" t="s">
+        <v>36</v>
       </c>
-      <c r="M9" t="s">
-        <v>93</v>
+      <c r="N10" t="s">
+        <v>433</v>
       </c>
-      <c r="N9" t="s">
-        <v>247</v>
+      <c r="O10" t="s">
+        <v>248</v>
       </c>
-      <c r="P9" t="s">
-        <v>419</v>
+      <c r="Q10" t="s">
+        <v>420</v>
       </c>
-      <c r="S9" t="s">
-        <v>364</v>
+      <c r="V10" t="s">
+        <v>258</v>
       </c>
-      <c r="U9" t="s">
-        <v>210</v>
+      <c r="Y10" t="s">
+        <v>191</v>
       </c>
-      <c r="X9" t="s">
-        <v>190</v>
+      <c r="AA10" t="s">
+        <v>237</v>
       </c>
-      <c r="Z9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>334</v>
       </c>
-      <c r="C10" t="s">
-        <v>316</v>
+      <c r="D11" t="s">
+        <v>256</v>
       </c>
-      <c r="E10" t="s">
-        <v>353</v>
+      <c r="F11" t="s">
+        <v>275</v>
       </c>
-      <c r="F10" t="s">
-        <v>466</v>
+      <c r="G11" t="s">
+        <v>323</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
-        <v>36</v>
+      <c r="L11" t="s">
+        <v>454</v>
       </c>
-      <c r="M10" t="s">
-        <v>433</v>
+      <c r="N11" t="s">
+        <v>94</v>
       </c>
-      <c r="N10" t="s">
-        <v>248</v>
+      <c r="O11" t="s">
+        <v>249</v>
       </c>
-      <c r="P10" t="s">
-        <v>420</v>
+      <c r="V11" t="s">
+        <v>259</v>
       </c>
-      <c r="U10" t="s">
-        <v>258</v>
+      <c r="Y11" t="s">
+        <v>260</v>
       </c>
-      <c r="X10" t="s">
-        <v>191</v>
+      <c r="AA11" t="s">
+        <v>238</v>
       </c>
-      <c r="Z10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>256</v>
+      <c r="D12" t="s">
+        <v>320</v>
       </c>
-      <c r="E11" t="s">
-        <v>275</v>
+      <c r="F12" t="s">
+        <v>264</v>
       </c>
-      <c r="F11" t="s">
-        <v>323</v>
+      <c r="G12" t="s">
+        <v>324</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
-        <v>454</v>
+      <c r="L12" t="s">
+        <v>39</v>
       </c>
-      <c r="M11" t="s">
-        <v>94</v>
+      <c r="N12" t="s">
+        <v>41</v>
       </c>
-      <c r="N11" t="s">
-        <v>249</v>
+      <c r="O12" t="s">
+        <v>250</v>
       </c>
-      <c r="U11" t="s">
-        <v>259</v>
+      <c r="V12" t="s">
+        <v>103</v>
       </c>
-      <c r="X11" t="s">
-        <v>260</v>
+      <c r="Y12" t="s">
+        <v>192</v>
       </c>
-      <c r="Z11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>197</v>
       </c>
-      <c r="C12" t="s">
-        <v>320</v>
+      <c r="D13" t="s">
+        <v>342</v>
       </c>
-      <c r="E12" t="s">
-        <v>264</v>
+      <c r="F13" t="s">
+        <v>317</v>
       </c>
-      <c r="F12" t="s">
-        <v>324</v>
+      <c r="G13" t="s">
+        <v>325</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K12" t="s">
-        <v>39</v>
+      <c r="L13" t="s">
+        <v>40</v>
       </c>
-      <c r="M12" t="s">
-        <v>41</v>
+      <c r="N13" t="s">
+        <v>95</v>
       </c>
-      <c r="N12" t="s">
-        <v>250</v>
+      <c r="O13" t="s">
+        <v>255</v>
       </c>
-      <c r="U12" t="s">
-        <v>103</v>
+      <c r="V13" t="s">
+        <v>327</v>
       </c>
-      <c r="X12" t="s">
-        <v>192</v>
+      <c r="Y13" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>342</v>
+      <c r="D14" t="s">
+        <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>317</v>
+      <c r="F14" t="s">
+        <v>265</v>
       </c>
-      <c r="F13" t="s">
-        <v>325</v>
+      <c r="G14" t="s">
+        <v>326</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K13" t="s">
-        <v>40</v>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
-      <c r="M13" t="s">
-        <v>95</v>
+      <c r="N14" t="s">
+        <v>96</v>
       </c>
-      <c r="N13" t="s">
-        <v>255</v>
+      <c r="O14" t="s">
+        <v>251</v>
       </c>
-      <c r="U13" t="s">
-        <v>327</v>
+      <c r="V14" t="s">
+        <v>104</v>
       </c>
-      <c r="X13" t="s">
-        <v>193</v>
+      <c r="Y14" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>240</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
+      <c r="D15" t="s">
+        <v>60</v>
       </c>
-      <c r="E14" t="s">
-        <v>265</v>
+      <c r="F15" t="s">
+        <v>266</v>
       </c>
-      <c r="F14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J15" t="s">
         <v>471</v>
       </c>
-      <c r="K14" t="s">
-        <v>43</v>
+      <c r="N15" t="s">
+        <v>97</v>
       </c>
-      <c r="M14" t="s">
-        <v>96</v>
+      <c r="O15" t="s">
+        <v>252</v>
       </c>
-      <c r="N14" t="s">
-        <v>251</v>
+      <c r="V15" t="s">
+        <v>105</v>
       </c>
-      <c r="U14" t="s">
-        <v>104</v>
+      <c r="Y15" t="s">
+        <v>195</v>
       </c>
-      <c r="X14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
+      <c r="D16" t="s">
+        <v>396</v>
       </c>
-      <c r="E15" t="s">
-        <v>266</v>
+      <c r="F16" t="s">
+        <v>318</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="M15" t="s">
-        <v>97</v>
+      <c r="O16" t="s">
+        <v>253</v>
       </c>
-      <c r="N15" t="s">
-        <v>252</v>
+      <c r="V16" t="s">
+        <v>76</v>
       </c>
-      <c r="U15" t="s">
-        <v>105</v>
+      <c r="Y16" t="s">
+        <v>196</v>
       </c>
-      <c r="X15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>411</v>
       </c>
-      <c r="C16" t="s">
-        <v>396</v>
+      <c r="D17" t="s">
+        <v>397</v>
       </c>
-      <c r="E16" t="s">
-        <v>318</v>
+      <c r="F17" t="s">
+        <v>90</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="N16" t="s">
-        <v>253</v>
+      <c r="V17" t="s">
+        <v>106</v>
       </c>
-      <c r="U16" t="s">
-        <v>76</v>
+      <c r="Y17" t="s">
+        <v>479</v>
       </c>
-      <c r="X16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>423</v>
       </c>
-      <c r="C17" t="s">
-        <v>397</v>
+      <c r="D18" t="s">
+        <v>426</v>
       </c>
-      <c r="E17" t="s">
-        <v>90</v>
+      <c r="F18" t="s">
+        <v>91</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="U17" t="s">
-        <v>106</v>
+      <c r="V18" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>424</v>
       </c>
-      <c r="C18" t="s">
-        <v>426</v>
+      <c r="D19" t="s">
+        <v>61</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
+      <c r="F19" t="s">
+        <v>297</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J19" t="s">
         <v>44</v>
       </c>
-      <c r="U18" t="s">
-        <v>107</v>
+      <c r="V19" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>358</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
+      <c r="D20" t="s">
+        <v>62</v>
       </c>
-      <c r="E19" t="s">
-        <v>297</v>
+      <c r="F20" t="s">
+        <v>298</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J20" t="s">
         <v>403</v>
       </c>
-      <c r="U19" t="s">
-        <v>108</v>
+      <c r="V20" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>407</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
+      <c r="D21" t="s">
+        <v>257</v>
       </c>
-      <c r="E20" t="s">
-        <v>298</v>
+      <c r="F21" t="s">
+        <v>299</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="U20" t="s">
-        <v>109</v>
+      <c r="V21" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>257</v>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
-      <c r="E21" t="s">
-        <v>299</v>
+      <c r="F22" t="s">
+        <v>300</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J22" t="s">
         <v>453</v>
       </c>
-      <c r="U21" t="s">
-        <v>110</v>
+      <c r="V22" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
+      <c r="D23" t="s">
+        <v>322</v>
       </c>
-      <c r="E22" t="s">
-        <v>300</v>
+      <c r="F23" t="s">
+        <v>291</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="U22" t="s">
-        <v>111</v>
+      <c r="V23" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>322</v>
+      <c r="D24" t="s">
+        <v>64</v>
       </c>
-      <c r="E23" t="s">
-        <v>291</v>
+      <c r="F24" t="s">
+        <v>280</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="U23" t="s">
-        <v>112</v>
+      <c r="V24" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>64</v>
+      <c r="D25" t="s">
+        <v>463</v>
       </c>
-      <c r="E24" t="s">
-        <v>280</v>
+      <c r="F25" t="s">
+        <v>77</v>
       </c>
-      <c r="U24" t="s">
-        <v>113</v>
+      <c r="V25" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>425</v>
       </c>
-      <c r="C25" t="s">
-        <v>463</v>
+      <c r="D26" t="s">
+        <v>226</v>
       </c>
-      <c r="E25" t="s">
-        <v>77</v>
+      <c r="F26" t="s">
+        <v>283</v>
       </c>
-      <c r="U25" t="s">
-        <v>114</v>
+      <c r="V26" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>427</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>421</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>422</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12012" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12488" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1507,13 +1507,19 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="387" x14ac:knownFonts="1">
+  <fonts count="403" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3947,8 +3953,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7792,8 +7899,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14881,6 +15141,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14888,7 +15430,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="430">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16101,52 +16643,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="377" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16561,7 +17151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16663,7 +17253,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -17775,7 +18365,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52">
@@ -17783,7 +18373,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -17791,7 +18381,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -17799,7 +18389,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
@@ -17807,7 +18397,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -17815,7 +18405,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -17823,7 +18413,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -17831,7 +18421,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -17839,7 +18429,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -17847,7 +18437,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -17855,7 +18445,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -17863,7 +18453,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63">
@@ -17871,7 +18461,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -17879,7 +18469,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65">
@@ -17887,7 +18477,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66">
@@ -17895,7 +18485,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -17903,7 +18493,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -17911,7 +18501,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -17919,7 +18509,7 @@
         <v>421</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -17927,7 +18517,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -17935,7 +18525,7 @@
         <v>422</v>
       </c>
       <c r="V71" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -17943,7 +18533,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73">
@@ -17951,7 +18541,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -17959,7 +18549,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -17967,7 +18557,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -17975,7 +18565,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -17983,7 +18573,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -17991,7 +18581,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -17999,7 +18589,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -18007,7 +18597,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
@@ -18015,7 +18605,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -18023,7 +18613,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -18031,7 +18621,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -18039,7 +18629,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -18047,7 +18637,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -18055,7 +18645,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
@@ -18063,7 +18653,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88">
@@ -18071,7 +18661,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -18079,7 +18669,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -18087,7 +18677,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -18095,7 +18685,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -18103,131 +18693,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="V93" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12488" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13920" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1513,13 +1513,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="403" x14ac:knownFonts="1">
+  <fonts count="451" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4054,8 +4063,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8052,8 +8364,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -15423,6 +16194,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15430,7 +17047,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="478">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16691,52 +18308,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="390" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="405" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="406" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="409" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="422" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17271,7 +19032,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -17354,7 +19115,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -17425,7 +19186,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -17496,7 +19257,7 @@
         <v>470</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>478</v>
@@ -17556,6 +19317,9 @@
       </c>
       <c r="G6" t="s">
         <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13920" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15359" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1522,13 +1522,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="451" x14ac:knownFonts="1">
+  <fonts count="499" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4366,8 +4378,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8823,8 +9138,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -17040,6 +17814,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17047,7 +18667,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18452,52 +20072,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="438" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="441" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="453" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="457" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="470" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="473" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18912,7 +20676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19780,7 +21544,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -19797,7 +21561,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>403</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -19814,7 +21578,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>403</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -19831,7 +21595,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -19848,7 +21612,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -19865,7 +21629,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -19880,6 +21644,9 @@
       </c>
       <c r="F25" t="s">
         <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
       </c>
       <c r="V25" t="s">
         <v>114</v>
@@ -19915,7 +21682,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -19926,7 +21693,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>487</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -19937,7 +21704,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -19948,7 +21715,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -19959,7 +21726,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -19970,7 +21737,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -19981,7 +21748,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -19992,7 +21759,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -20003,7 +21770,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -20013,6 +21780,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -20021,6 +21791,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -20305,7 +22078,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74">
@@ -20313,7 +22086,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -20321,7 +22094,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -20329,7 +22102,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -20337,7 +22110,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -20345,7 +22118,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -20353,7 +22126,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -20361,7 +22134,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -20369,7 +22142,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82">
@@ -20377,7 +22150,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -20385,7 +22158,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -20393,7 +22166,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -20401,7 +22174,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -20409,7 +22182,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -20417,7 +22190,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88">
@@ -20425,7 +22198,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89">
@@ -20433,7 +22206,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -20441,7 +22214,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -20449,7 +22222,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -20457,136 +22230,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="V93" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15359" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1534,13 +1534,19 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="499" x14ac:knownFonts="1">
+  <fonts count="515" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4681,8 +4687,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9597,8 +9704,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -18660,6 +18920,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18667,7 +19209,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="542">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20216,52 +20758,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="485" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="489" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21333,7 +21923,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -21368,7 +21958,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -21400,7 +21990,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -21432,7 +22022,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -21460,6 +22050,9 @@
       <c r="J15" t="s">
         <v>471</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -21485,6 +22078,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16328" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1540,13 +1540,22 @@
   <si>
     <t>minify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="515" x14ac:knownFonts="1">
+  <fonts count="531" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4788,8 +4797,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9857,8 +9967,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19202,6 +19465,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19209,7 +19754,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20806,52 +21351,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="502" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="505" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21266,7 +21859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21865,7 +22458,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
@@ -21903,7 +22496,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
@@ -21938,7 +22531,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -21972,6 +22565,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -22004,6 +22600,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22594,7 +23193,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
@@ -22602,7 +23201,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -22610,7 +23209,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66">
@@ -22618,7 +23217,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67">
@@ -22626,7 +23225,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -22634,7 +23233,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -22642,7 +23241,7 @@
         <v>421</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -22650,7 +23249,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -22658,7 +23257,7 @@
         <v>422</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -22666,7 +23265,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -22674,7 +23273,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74">
@@ -22682,7 +23281,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75">
@@ -22690,7 +23289,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -22698,7 +23297,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -22706,7 +23305,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -22714,7 +23313,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -22722,7 +23321,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -22730,7 +23329,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -22738,7 +23337,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -22746,7 +23345,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83">
@@ -22754,7 +23353,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -22762,7 +23361,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -22770,7 +23369,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -22778,7 +23377,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -22786,7 +23385,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -22794,7 +23393,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89">
@@ -22802,7 +23401,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90">
@@ -22810,7 +23409,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -22818,7 +23417,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -22826,141 +23425,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="V93" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="119">
+      <c r="V119" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -27,31 +27,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16328" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16822" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1549,13 +1550,40 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="531" x14ac:knownFonts="1">
+  <fonts count="547" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4898,8 +4926,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10120,8 +10249,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -19747,6 +20029,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19754,7 +20318,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="574">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21399,52 +21963,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="520" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="521" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21859,7 +22471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21908,48 +22520,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>423</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>424</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>425</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21991,48 +22606,51 @@
         <v>429</v>
       </c>
       <c r="M2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>412</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>435</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>436</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>444</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22059,7 +22677,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>495</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -22073,43 +22691,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>413</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>437</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22132,6 +22753,9 @@
       <c r="G4" t="s">
         <v>465</v>
       </c>
+      <c r="H4" t="s">
+        <v>496</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -22144,43 +22768,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>499</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>414</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>438</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>445</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22212,40 +22839,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>415</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>439</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>446</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22274,37 +22901,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>402</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>416</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>458</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>447</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22330,37 +22957,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>434</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>459</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>448</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22386,34 +23013,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>418</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>449</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22439,25 +23066,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>419</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>492</v>
       </c>
     </row>
@@ -22480,22 +23107,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>433</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>420</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>493</v>
       </c>
     </row>
@@ -22518,19 +23145,19 @@
       <c r="L11" t="s">
         <v>489</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -22553,25 +23180,25 @@
       <c r="L12" t="s">
         <v>454</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -22588,25 +23215,25 @@
       <c r="L13" t="s">
         <v>490</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -22623,22 +23250,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -22652,22 +23279,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>396</v>
@@ -22681,19 +23308,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>397</v>
@@ -22704,16 +23331,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
         <v>426</v>
@@ -22724,13 +23351,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -22741,13 +23368,13 @@
       <c r="J19" t="s">
         <v>488</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -22758,13 +23385,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -22775,13 +23402,13 @@
       <c r="J21" t="s">
         <v>403</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -22792,13 +23419,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -22809,13 +23436,13 @@
       <c r="J23" t="s">
         <v>453</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -22826,13 +23453,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>463</v>
@@ -22843,13 +23470,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -22857,13 +23484,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -22871,18 +23498,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>486</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22893,7 +23523,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22904,7 +23534,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22915,7 +23545,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22926,7 +23556,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22937,7 +23567,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22948,7 +23578,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22959,7 +23589,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22970,7 +23600,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -22981,7 +23611,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>440</v>
       </c>
     </row>
@@ -22992,7 +23622,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>404</v>
       </c>
     </row>
@@ -23000,7 +23630,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23008,7 +23638,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23016,7 +23646,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23024,7 +23654,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23032,7 +23662,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23040,7 +23670,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23048,7 +23678,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>455</v>
       </c>
     </row>
@@ -23056,7 +23686,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23064,7 +23694,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -23072,7 +23702,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23080,7 +23710,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23088,7 +23718,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23096,475 +23726,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>481</v>
+      <c r="W51" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>474</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>451</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>491</v>
+      <c r="W63" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>400</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>456</v>
+      <c r="W66" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>421</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>422</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>469</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>485</v>
+      <c r="W74" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>468</v>
+      <c r="W82" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>442</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>450</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16822" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17316" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1583,7 +1583,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="547" x14ac:knownFonts="1">
+  <fonts count="563" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5027,8 +5027,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="976">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10402,8 +10503,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -20311,6 +20565,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20318,7 +20854,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22011,52 +22547,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="536" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="537" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -21,38 +21,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17316" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18321" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1577,13 +1578,43 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="563" x14ac:knownFonts="1">
+  <fonts count="595" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5128,8 +5159,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="976">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10656,8 +10889,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -20847,6 +21386,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20854,7 +21957,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22595,52 +23698,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="552" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="553" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="565" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="568" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="569" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23055,7 +24254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23077,78 +24276,81 @@
         <v>475</v>
       </c>
       <c r="D1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>494</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>423</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>424</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>407</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>425</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -23163,79 +24365,82 @@
         <v>480</v>
       </c>
       <c r="D2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>464</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>484</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>395</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>429</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>497</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>430</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>435</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>436</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>444</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="3">
@@ -23249,1546 +24454,1573 @@
         <v>477</v>
       </c>
       <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
         <v>472</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>495</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>498</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>432</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>413</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>437</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>398</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>465</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>496</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>499</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>414</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>438</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>445</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" t="s">
         <v>473</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>452</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>470</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>478</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>415</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>439</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>446</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>399</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>462</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>402</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>416</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>458</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>447</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>461</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>434</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>459</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>448</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>418</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>449</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>419</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" t="s">
+        <v>420</v>
+      </c>
+      <c r="X10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>316</v>
+      <c r="E11" t="s">
+        <v>256</v>
       </c>
-      <c r="F10" t="s">
-        <v>353</v>
+      <c r="G11" t="s">
+        <v>275</v>
       </c>
-      <c r="G10" t="s">
-        <v>466</v>
+      <c r="H11" t="s">
+        <v>323</v>
       </c>
-      <c r="J10" t="s">
-        <v>401</v>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
-      <c r="L10" t="s">
-        <v>36</v>
+      <c r="M11" t="s">
+        <v>489</v>
       </c>
-      <c r="O10" t="s">
-        <v>433</v>
+      <c r="P11" t="s">
+        <v>94</v>
       </c>
-      <c r="P10" t="s">
-        <v>248</v>
+      <c r="Q11" t="s">
+        <v>249</v>
       </c>
-      <c r="R10" t="s">
-        <v>420</v>
+      <c r="X11" t="s">
+        <v>259</v>
       </c>
-      <c r="W10" t="s">
-        <v>258</v>
+      <c r="AA11" t="s">
+        <v>260</v>
       </c>
-      <c r="Z10" t="s">
-        <v>191</v>
+      <c r="AC11" t="s">
+        <v>509</v>
       </c>
-      <c r="AB10" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>454</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>250</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>490</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>255</v>
+      </c>
+      <c r="X13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>334</v>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>494</v>
       </c>
-      <c r="D11" t="s">
-        <v>256</v>
+      <c r="E14" t="s">
+        <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>275</v>
+      <c r="G14" t="s">
+        <v>265</v>
       </c>
-      <c r="G11" t="s">
-        <v>323</v>
+      <c r="H14" t="s">
+        <v>326</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
+      <c r="K14" t="s">
+        <v>83</v>
       </c>
-      <c r="L11" t="s">
-        <v>489</v>
+      <c r="M14" t="s">
+        <v>39</v>
       </c>
-      <c r="O11" t="s">
-        <v>94</v>
+      <c r="P14" t="s">
+        <v>96</v>
       </c>
-      <c r="P11" t="s">
-        <v>249</v>
+      <c r="Q14" t="s">
+        <v>251</v>
       </c>
-      <c r="W11" t="s">
-        <v>259</v>
+      <c r="X14" t="s">
+        <v>104</v>
       </c>
-      <c r="Z11" t="s">
-        <v>260</v>
+      <c r="AA14" t="s">
+        <v>194</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" t="s">
+        <v>471</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>252</v>
+      </c>
+      <c r="X15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>253</v>
+      </c>
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>24</v>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>240</v>
       </c>
-      <c r="D12" t="s">
-        <v>320</v>
+      <c r="E17" t="s">
+        <v>397</v>
       </c>
-      <c r="F12" t="s">
-        <v>264</v>
+      <c r="G17" t="s">
+        <v>90</v>
       </c>
-      <c r="G12" t="s">
-        <v>324</v>
+      <c r="K17" t="s">
+        <v>85</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
+      <c r="X17" t="s">
+        <v>106</v>
       </c>
-      <c r="L12" t="s">
-        <v>454</v>
+      <c r="AA17" t="s">
+        <v>479</v>
       </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s">
-        <v>250</v>
-      </c>
-      <c r="W12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>494</v>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>342</v>
+      <c r="E18" t="s">
+        <v>426</v>
       </c>
-      <c r="F13" t="s">
-        <v>317</v>
+      <c r="G18" t="s">
+        <v>91</v>
       </c>
-      <c r="G13" t="s">
-        <v>325</v>
+      <c r="K18" t="s">
+        <v>381</v>
       </c>
-      <c r="J13" t="s">
-        <v>82</v>
+      <c r="X18" t="s">
+        <v>107</v>
       </c>
-      <c r="L13" t="s">
-        <v>490</v>
-      </c>
-      <c r="O13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" t="s">
-        <v>255</v>
-      </c>
-      <c r="W13" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G14" t="s">
-        <v>326</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" t="s">
-        <v>251</v>
-      </c>
-      <c r="W14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" t="s">
-        <v>471</v>
-      </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" t="s">
-        <v>252</v>
-      </c>
-      <c r="W15" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" t="s">
-        <v>253</v>
-      </c>
-      <c r="W16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>411</v>
       </c>
-      <c r="D18" t="s">
-        <v>426</v>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
-      <c r="F18" t="s">
-        <v>91</v>
+      <c r="G19" t="s">
+        <v>297</v>
       </c>
-      <c r="J18" t="s">
-        <v>381</v>
+      <c r="K19" t="s">
+        <v>488</v>
       </c>
-      <c r="W18" t="s">
-        <v>107</v>
+      <c r="X19" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>423</v>
       </c>
-      <c r="D19" t="s">
-        <v>61</v>
+      <c r="E20" t="s">
+        <v>62</v>
       </c>
-      <c r="F19" t="s">
-        <v>297</v>
+      <c r="G20" t="s">
+        <v>298</v>
       </c>
-      <c r="J19" t="s">
-        <v>488</v>
+      <c r="K20" t="s">
+        <v>44</v>
       </c>
-      <c r="W19" t="s">
-        <v>108</v>
+      <c r="X20" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>424</v>
       </c>
-      <c r="D20" t="s">
-        <v>62</v>
+      <c r="E21" t="s">
+        <v>257</v>
       </c>
-      <c r="F20" t="s">
-        <v>298</v>
+      <c r="G21" t="s">
+        <v>299</v>
       </c>
-      <c r="J20" t="s">
-        <v>44</v>
+      <c r="K21" t="s">
+        <v>403</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
+      <c r="X21" t="s">
+        <v>500</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>358</v>
       </c>
-      <c r="D21" t="s">
-        <v>257</v>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
-      <c r="F21" t="s">
-        <v>299</v>
+      <c r="G22" t="s">
+        <v>300</v>
       </c>
-      <c r="J21" t="s">
-        <v>403</v>
+      <c r="K22" t="s">
+        <v>86</v>
       </c>
-      <c r="W21" t="s">
-        <v>500</v>
+      <c r="X22" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>407</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
+      <c r="E23" t="s">
+        <v>322</v>
       </c>
-      <c r="F22" t="s">
-        <v>300</v>
+      <c r="G23" t="s">
+        <v>291</v>
       </c>
-      <c r="J22" t="s">
-        <v>86</v>
+      <c r="K23" t="s">
+        <v>453</v>
       </c>
-      <c r="W22" t="s">
-        <v>111</v>
+      <c r="X23" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>322</v>
+      <c r="E24" t="s">
+        <v>64</v>
       </c>
-      <c r="F23" t="s">
-        <v>291</v>
+      <c r="G24" t="s">
+        <v>280</v>
       </c>
-      <c r="J23" t="s">
-        <v>453</v>
+      <c r="K24" t="s">
+        <v>45</v>
       </c>
-      <c r="W23" t="s">
-        <v>112</v>
+      <c r="X24" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
+      <c r="E25" t="s">
+        <v>463</v>
       </c>
-      <c r="F24" t="s">
-        <v>280</v>
+      <c r="G25" t="s">
+        <v>77</v>
       </c>
-      <c r="J24" t="s">
-        <v>45</v>
+      <c r="K25" t="s">
+        <v>46</v>
       </c>
-      <c r="W24" t="s">
-        <v>113</v>
+      <c r="X25" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>463</v>
+      <c r="E26" t="s">
+        <v>226</v>
       </c>
-      <c r="F25" t="s">
-        <v>77</v>
+      <c r="G26" t="s">
+        <v>283</v>
       </c>
-      <c r="J25" t="s">
-        <v>46</v>
+      <c r="X26" t="s">
+        <v>115</v>
       </c>
-      <c r="W25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
-        <v>226</v>
+      <c r="E27" t="s">
+        <v>227</v>
       </c>
-      <c r="F26" t="s">
-        <v>283</v>
+      <c r="G27" t="s">
+        <v>267</v>
       </c>
-      <c r="W26" t="s">
-        <v>115</v>
+      <c r="X27" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>425</v>
       </c>
-      <c r="D27" t="s">
-        <v>227</v>
+      <c r="E28" t="s">
+        <v>486</v>
       </c>
-      <c r="F27" t="s">
-        <v>267</v>
+      <c r="G28" t="s">
+        <v>284</v>
       </c>
-      <c r="W27" t="s">
-        <v>328</v>
+      <c r="X28" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>486</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>487</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>427</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>421</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>422</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>428</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF04EB-2AC2-4CED-9BAD-F0683D0FEDEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E1CF04EB-2AC2-4CED-9BAD-F0683D0FEDEE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="failfast_in_scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="dummy1" sheetId="5" r:id="rId3"/>
-    <sheet name="failfast_in_scenario2" sheetId="7" r:id="rId4"/>
-    <sheet name="dummy2" sheetId="6" r:id="rId5"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="failfast_in_scenario" r:id="rId2" sheetId="2"/>
+    <sheet name="dummy1" r:id="rId3" sheetId="5"/>
+    <sheet name="failfast_in_scenario2" r:id="rId4" sheetId="7"/>
+    <sheet name="dummy2" r:id="rId5" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,15 +50,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="636">
   <si>
     <t>description</t>
   </si>
@@ -1822,13 +1822,173 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1905,8 +2065,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1923,6 +2297,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1966,150 +2612,252 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2233,7 +2981,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2258,10 +3006,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2296,7 +3044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2331,7 +3079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2425,21 +3173,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2456,7 +3204,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2508,26 +3256,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2607,25 +3355,28 @@
         <v>573</v>
       </c>
       <c r="AA1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>417</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -2705,25 +3456,28 @@
         <v>577</v>
       </c>
       <c r="AA2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>434</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -2794,25 +3548,28 @@
         <v>578</v>
       </c>
       <c r="AA3" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -2880,25 +3637,28 @@
         <v>579</v>
       </c>
       <c r="AA4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB4" t="s">
         <v>557</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>435</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>548</v>
       </c>
@@ -2954,25 +3714,28 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB5" t="s">
         <v>551</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>568</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>436</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3025,25 +3788,28 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>437</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3087,25 +3853,28 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>447</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>438</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3149,25 +3918,28 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>439</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3208,19 +3980,22 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3252,19 +4027,22 @@
         <v>412</v>
       </c>
       <c r="AA10" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>569</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3290,19 +4068,22 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>590</v>
       </c>
       <c r="AA11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3328,19 +4109,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3366,19 +4150,22 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>561</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3401,19 +4188,22 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>561</v>
       </c>
       <c r="AA14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>512</v>
       </c>
@@ -3436,19 +4226,22 @@
         <v>500</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB15" t="s">
         <v>580</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -3471,19 +4264,22 @@
         <v>501</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB16" t="s">
         <v>562</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3500,19 +4296,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>464</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3528,19 +4327,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -3549,18 +4354,21 @@
         <v>457</v>
       </c>
       <c r="AA19" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB19" t="s">
         <v>502</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>585</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -3569,18 +4377,21 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -3589,18 +4400,21 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>538</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -3609,18 +4423,21 @@
         <v>554</v>
       </c>
       <c r="AA22" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -3629,18 +4446,21 @@
         <v>471</v>
       </c>
       <c r="AA23" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -3649,18 +4469,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB24" t="s">
         <v>483</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>399</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>587</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -3669,946 +4492,1039 @@
         <v>395</v>
       </c>
       <c r="AA25" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>573</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="AA26" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB26" t="s">
         <v>542</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>583</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>523</v>
       </c>
       <c r="AA27" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>443</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>469</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="AA29" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>469</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>470</v>
       </c>
       <c r="H34" t="s">
         <v>508</v>
       </c>
       <c r="AA34" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>419</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB36" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>539</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>588</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>540</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>527</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>413</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>414</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>509</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>528</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="19.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="15.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4639,7 +5555,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4658,7 +5574,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4675,7 +5591,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>377</v>
       </c>
@@ -4745,7 +5661,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>383</v>
@@ -4772,7 +5688,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4795,7 +5711,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -4812,7 +5728,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -4829,7 +5745,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -4846,7 +5762,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4863,7 +5779,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4880,7 +5796,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4897,7 +5813,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4914,7 +5830,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4931,7 +5847,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4948,7 +5864,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4965,7 +5881,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4982,7 +5898,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4999,7 +5915,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5016,7 +5932,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5033,7 +5949,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5050,7 +5966,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5067,7 +5983,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5084,7 +6000,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5101,7 +6017,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5118,7 +6034,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5135,7 +6051,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5152,7 +6068,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5169,7 +6085,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5186,7 +6102,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5203,7 +6119,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5220,7 +6136,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5237,7 +6153,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5254,7 +6170,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5271,7 +6187,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5288,7 +6204,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5305,7 +6221,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5322,7 +6238,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5339,7 +6255,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5356,7 +6272,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5373,7 +6289,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5390,7 +6306,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5407,7 +6323,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5424,7 +6340,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5441,7 +6357,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5458,7 +6374,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5475,7 +6391,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5492,7 +6408,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5509,7 +6425,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5527,7 +6443,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5535,54 +6451,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B258ADB-363F-524D-91F5-F95807E6381B}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B258ADB-363F-524D-91F5-F95807E6381B}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="35.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +6529,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
@@ -5634,7 +6550,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5651,7 +6567,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5696,7 +6612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>385</v>
       </c>
@@ -5721,7 +6637,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
@@ -5738,7 +6654,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -5755,7 +6671,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -5772,7 +6688,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -5789,7 +6705,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -5806,7 +6722,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -5823,7 +6739,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -5840,7 +6756,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -5857,7 +6773,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -5874,7 +6790,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -5891,7 +6807,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -5908,7 +6824,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5925,7 +6841,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5942,7 +6858,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5959,7 +6875,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5976,7 +6892,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5993,7 +6909,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6010,7 +6926,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6027,7 +6943,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6044,7 +6960,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6061,7 +6977,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6078,7 +6994,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6095,7 +7011,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -6112,7 +7028,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6129,7 +7045,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6146,7 +7062,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6163,7 +7079,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6180,7 +7096,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6197,7 +7113,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6214,7 +7130,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6231,7 +7147,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6248,7 +7164,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6265,7 +7181,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6282,7 +7198,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6299,7 +7215,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6316,7 +7232,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6333,7 +7249,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6350,7 +7266,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6367,7 +7283,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6384,7 +7300,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6401,7 +7317,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6418,7 +7334,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6435,7 +7351,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6452,7 +7368,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6469,7 +7385,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6487,7 +7403,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6495,54 +7411,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{2F0A56DA-41FD-4C47-B6F0-676427A43D48}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{2F0A56DA-41FD-4C47-B6F0-676427A43D48}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{3F466420-3F4E-884E-9D94-0EC8DBD203B5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{3F466420-3F4E-884E-9D94-0EC8DBD203B5}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0234582-0BEF-9548-9561-C5AD47038164}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0234582-0BEF-9548-9561-C5AD47038164}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="19.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="15.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +7489,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6592,7 +7508,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6609,7 +7525,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -6654,7 +7570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>377</v>
       </c>
@@ -6679,7 +7595,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>383</v>
@@ -6706,7 +7622,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -6729,7 +7645,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -6746,7 +7662,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -6763,7 +7679,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -6780,7 +7696,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -6797,7 +7713,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -6814,7 +7730,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -6831,7 +7747,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -6848,7 +7764,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -6865,7 +7781,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6882,7 +7798,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6899,7 +7815,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6916,7 +7832,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6933,7 +7849,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6950,7 +7866,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6967,7 +7883,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6984,7 +7900,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -7001,7 +7917,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -7018,7 +7934,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -7035,7 +7951,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -7052,7 +7968,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -7069,7 +7985,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -7086,7 +8002,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -7103,7 +8019,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -7120,7 +8036,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -7137,7 +8053,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -7154,7 +8070,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -7171,7 +8087,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -7188,7 +8104,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -7205,7 +8121,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7222,7 +8138,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7239,7 +8155,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7256,7 +8172,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7273,7 +8189,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7290,7 +8206,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7307,7 +8223,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7324,7 +8240,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7341,7 +8257,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7358,7 +8274,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7375,7 +8291,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7392,7 +8308,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7409,7 +8325,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -7426,7 +8342,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7443,7 +8359,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7461,7 +8377,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7469,54 +8385,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{D8C9839C-396B-7146-93D1-697BA1967684}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{D8C9839C-396B-7146-93D1-697BA1967684}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{C7568B5A-90CB-6043-B906-B2FFD99F3D57}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{C7568B5A-90CB-6043-B906-B2FFD99F3D57}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3781E8DC-EC4C-4343-857D-AB3E0DC37AF2}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3781E8DC-EC4C-4343-857D-AB3E0DC37AF2}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="35.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +8463,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
@@ -7568,7 +8484,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -7585,7 +8501,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -7630,7 +8546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>386</v>
       </c>
@@ -7655,7 +8571,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
@@ -7672,7 +8588,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -7689,7 +8605,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -7706,7 +8622,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -7723,7 +8639,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -7740,7 +8656,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -7757,7 +8673,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -7774,7 +8690,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -7791,7 +8707,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -7808,7 +8724,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -7825,7 +8741,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -7842,7 +8758,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -7859,7 +8775,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -7876,7 +8792,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -7893,7 +8809,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -7910,7 +8826,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -7927,7 +8843,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -7944,7 +8860,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -7961,7 +8877,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -7978,7 +8894,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -7995,7 +8911,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -8012,7 +8928,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -8029,7 +8945,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -8046,7 +8962,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -8063,7 +8979,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -8080,7 +8996,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -8097,7 +9013,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -8114,7 +9030,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -8131,7 +9047,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -8148,7 +9064,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -8165,7 +9081,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -8182,7 +9098,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -8199,7 +9115,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -8216,7 +9132,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -8233,7 +9149,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -8250,7 +9166,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -8267,7 +9183,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -8284,7 +9200,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -8301,7 +9217,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -8318,7 +9234,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -8335,7 +9251,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -8352,7 +9268,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -8369,7 +9285,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -8386,7 +9302,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -8403,7 +9319,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -8421,7 +9337,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8429,24 +9345,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{E0AC4E92-5C5D-F147-B34B-76186B0AFB27}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{E0AC4E92-5C5D-F147-B34B-76186B0AFB27}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{BA498321-11D7-E840-8D51-63216AE4D14B}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{BA498321-11D7-E840-8D51-63216AE4D14B}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -24,13 +24,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,15 +50,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="638">
   <si>
     <t>description</t>
   </si>
@@ -1981,6 +1981,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1994,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2279,8 +2285,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2297,6 +2410,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2617,7 +2866,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2801,55 +3050,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3264,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3355,24 +3655,21 @@
         <v>573</v>
       </c>
       <c r="AA1" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="AF1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3405,7 +3702,7 @@
         <v>451</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="K2" t="s">
         <v>467</v>
@@ -3456,24 +3753,21 @@
         <v>577</v>
       </c>
       <c r="AA2" t="s">
-        <v>591</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="AF2" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -3503,7 +3797,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>346</v>
@@ -3548,24 +3842,21 @@
         <v>578</v>
       </c>
       <c r="AA3" t="s">
-        <v>592</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="AE3" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3592,7 +3883,7 @@
         <v>452</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K4" t="s">
         <v>347</v>
@@ -3637,24 +3928,21 @@
         <v>579</v>
       </c>
       <c r="AA4" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="AB4" t="s">
-        <v>557</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="AF4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3681,7 +3969,7 @@
         <v>456</v>
       </c>
       <c r="J5" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="K5" t="s">
         <v>348</v>
@@ -3714,24 +4002,21 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="AB5" t="s">
-        <v>551</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="AD5" t="s">
-        <v>568</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>436</v>
       </c>
       <c r="AF5" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3758,7 +4043,7 @@
         <v>449</v>
       </c>
       <c r="J6" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="K6" t="s">
         <v>572</v>
@@ -3788,24 +4073,21 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
-        <v>595</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>446</v>
       </c>
       <c r="AC6" t="s">
-        <v>446</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="AF6" t="s">
-        <v>437</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3825,6 +4107,9 @@
       <c r="I7" t="s">
         <v>448</v>
       </c>
+      <c r="J7" t="s">
+        <v>555</v>
+      </c>
       <c r="K7" t="s">
         <v>345</v>
       </c>
@@ -3853,24 +4138,21 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
-        <v>596</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="AC7" t="s">
-        <v>447</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="AF7" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG7" t="s">
         <v>532</v>
       </c>
     </row>
@@ -3918,24 +4200,21 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
-        <v>597</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="AF8" t="s">
-        <v>439</v>
-      </c>
-      <c r="AG8" t="s">
         <v>533</v>
       </c>
     </row>
@@ -3980,18 +4259,15 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4027,18 +4303,15 @@
         <v>412</v>
       </c>
       <c r="AA10" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB10" t="s">
         <v>254</v>
       </c>
+      <c r="AC10" t="s">
+        <v>569</v>
+      </c>
       <c r="AD10" t="s">
-        <v>569</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4047,7 +4320,7 @@
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -4071,15 +4344,12 @@
         <v>590</v>
       </c>
       <c r="AA11" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4088,7 +4358,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>550</v>
       </c>
       <c r="H12" t="s">
         <v>271</v>
@@ -4112,15 +4382,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>601</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4129,7 +4396,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -4153,15 +4420,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4170,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -4191,15 +4455,12 @@
         <v>561</v>
       </c>
       <c r="AA14" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4208,7 +4469,7 @@
         <v>512</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>261</v>
@@ -4229,15 +4490,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB15" t="s">
         <v>580</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4246,7 +4504,7 @@
         <v>477</v>
       </c>
       <c r="F16" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>262</v>
@@ -4267,15 +4525,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB16" t="s">
         <v>562</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4284,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H17" t="s">
         <v>314</v>
@@ -4299,15 +4554,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>464</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4316,7 +4568,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4331,12 +4583,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4345,7 +4594,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>584</v>
+        <v>418</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4354,12 +4603,9 @@
         <v>457</v>
       </c>
       <c r="AA19" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB19" t="s">
         <v>502</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4368,7 +4614,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4377,12 +4623,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4391,7 +4634,7 @@
         <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4400,12 +4643,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4414,7 +4654,7 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>586</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4423,12 +4663,9 @@
         <v>554</v>
       </c>
       <c r="AA22" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4437,7 +4674,7 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4446,12 +4683,9 @@
         <v>471</v>
       </c>
       <c r="AA23" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>535</v>
       </c>
     </row>
@@ -4460,7 +4694,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4469,12 +4703,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB24" t="s">
         <v>483</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4483,7 +4714,7 @@
         <v>399</v>
       </c>
       <c r="F25" t="s">
-        <v>587</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4492,12 +4723,9 @@
         <v>395</v>
       </c>
       <c r="AA25" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>537</v>
       </c>
     </row>
@@ -4506,7 +4734,7 @@
         <v>573</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4515,21 +4743,18 @@
         <v>589</v>
       </c>
       <c r="AA26" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB26" t="s">
         <v>542</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>538</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4538,21 +4763,18 @@
         <v>523</v>
       </c>
       <c r="AA27" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4561,18 +4783,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4581,18 +4800,15 @@
         <v>443</v>
       </c>
       <c r="AA29" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>450</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4601,18 +4817,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4621,187 +4834,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>469</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H34" t="s">
         <v>508</v>
       </c>
       <c r="AA34" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>419</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB36" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>539</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>588</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>588</v>
+      </c>
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4809,7 +4998,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4817,7 +5006,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4825,7 +5014,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4833,7 +5022,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4841,7 +5030,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4849,7 +5038,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>581</v>
       </c>
     </row>
@@ -4857,7 +5046,7 @@
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4865,7 +5054,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4873,7 +5062,7 @@
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4881,7 +5070,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4889,7 +5078,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4897,7 +5086,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4905,7 +5094,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4913,7 +5102,7 @@
       <c r="H59" t="s">
         <v>540</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4921,7 +5110,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4929,7 +5118,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4937,7 +5126,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4945,7 +5134,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4953,7 +5142,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4961,7 +5150,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4969,7 +5158,7 @@
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4977,7 +5166,7 @@
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4985,7 +5174,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4993,7 +5182,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5001,7 +5190,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5009,7 +5198,7 @@
       <c r="H71" t="s">
         <v>527</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5017,7 +5206,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5025,7 +5214,7 @@
       <c r="H73" t="s">
         <v>413</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5033,7 +5222,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5041,7 +5230,7 @@
       <c r="H75" t="s">
         <v>414</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5049,7 +5238,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5057,7 +5246,7 @@
       <c r="H77" t="s">
         <v>509</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5065,7 +5254,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5073,7 +5262,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>628</v>
       </c>
     </row>
@@ -5081,7 +5270,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5089,7 +5278,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5097,7 +5286,7 @@
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5105,7 +5294,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5113,7 +5302,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5121,7 +5310,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5129,7 +5318,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5137,7 +5326,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5145,7 +5334,7 @@
       <c r="H88" t="s">
         <v>528</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5153,7 +5342,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5161,7 +5350,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5169,7 +5358,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5177,7 +5366,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>560</v>
       </c>
     </row>
@@ -5185,7 +5374,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5193,7 +5382,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5201,7 +5390,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5209,7 +5398,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5217,7 +5406,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5225,272 +5414,272 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>635</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="638">
   <si>
     <t>description</t>
   </si>
@@ -1994,7 +1994,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2392,8 +2392,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2410,6 +2624,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2866,7 +3352,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3101,55 +3587,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -32,12 +32,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5003" uniqueCount="642">
   <si>
     <t>description</t>
   </si>
@@ -1987,6 +1987,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2006,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2606,8 +2618,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2624,6 +2850,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3352,7 +3850,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3689,55 +4187,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4311,7 +4911,7 @@
         <v>480</v>
       </c>
       <c r="Q2" t="s">
-        <v>422</v>
+        <v>639</v>
       </c>
       <c r="R2" t="s">
         <v>423</v>
@@ -4405,6 +5005,9 @@
       <c r="P3" t="s">
         <v>481</v>
       </c>
+      <c r="Q3" t="s">
+        <v>640</v>
+      </c>
       <c r="R3" t="s">
         <v>424</v>
       </c>
@@ -4491,6 +5094,9 @@
       <c r="P4" t="s">
         <v>482</v>
       </c>
+      <c r="Q4" t="s">
+        <v>641</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4702,7 +5308,7 @@
         <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>638</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -4764,7 +5370,7 @@
         <v>529</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4823,7 +5429,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4873,7 +5479,7 @@
         <v>570</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4917,7 +5523,7 @@
         <v>571</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>472</v>
@@ -4955,7 +5561,7 @@
         <v>453</v>
       </c>
       <c r="L12" t="s">
-        <v>505</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>530</v>
@@ -4993,7 +5599,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="N13" t="s">
         <v>444</v>
@@ -5031,7 +5637,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="N14" t="s">
         <v>473</v>
@@ -5066,7 +5672,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5101,7 +5707,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>506</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>541</v>
@@ -5133,7 +5739,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5162,7 +5768,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5188,7 +5794,7 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
         <v>502</v>
@@ -5208,7 +5814,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -5228,7 +5834,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -5248,7 +5854,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>554</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -5268,7 +5874,7 @@
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -5288,7 +5894,7 @@
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="AA24" t="s">
         <v>483</v>
@@ -5308,7 +5914,7 @@
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>395</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -5328,7 +5934,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>589</v>
+        <v>395</v>
       </c>
       <c r="AA26" t="s">
         <v>542</v>
@@ -5348,7 +5954,7 @@
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -5368,7 +5974,7 @@
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>523</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -5385,7 +5991,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>443</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -5402,7 +6008,7 @@
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -5419,7 +6025,7 @@
         <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -5434,6 +6040,9 @@
       </c>
       <c r="H32" t="s">
         <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -37,12 +37,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5003" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="648">
   <si>
     <t>description</t>
   </si>
@@ -1999,6 +1999,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2024,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2832,8 +2850,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2850,6 +2975,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3850,7 +4111,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4289,55 +4550,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4911,7 +5223,7 @@
         <v>480</v>
       </c>
       <c r="Q2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="R2" t="s">
         <v>423</v>
@@ -5006,7 +5318,7 @@
         <v>481</v>
       </c>
       <c r="Q3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="R3" t="s">
         <v>424</v>
@@ -5095,7 +5407,7 @@
         <v>482</v>
       </c>
       <c r="Q4" t="s">
-        <v>641</v>
+        <v>422</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5177,6 +5489,9 @@
       <c r="O5" t="s">
         <v>524</v>
       </c>
+      <c r="Q5" t="s">
+        <v>644</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5611,7 +5926,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -5646,7 +5961,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>561</v>
+        <v>247</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -5681,7 +5996,7 @@
         <v>500</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>561</v>
       </c>
       <c r="AA15" t="s">
         <v>580</v>
@@ -5716,7 +6031,7 @@
         <v>501</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
         <v>562</v>
@@ -5745,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -5774,7 +6089,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -5796,6 +6111,9 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
+      <c r="S19" t="s">
+        <v>646</v>
+      </c>
       <c r="AA19" t="s">
         <v>502</v>
       </c>
@@ -5816,6 +6134,9 @@
       <c r="L20" t="s">
         <v>457</v>
       </c>
+      <c r="S20" t="s">
+        <v>250</v>
+      </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
@@ -5835,6 +6156,9 @@
       </c>
       <c r="L21" t="s">
         <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>647</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -24,12 +24,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -50,15 +50,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6255" uniqueCount="685">
   <si>
     <t>description</t>
   </si>
@@ -2017,6 +2019,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2957,8 +3070,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2975,6 +3195,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4111,7 +4467,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4650,6 +5006,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5064,7 +5471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5164,12 +5571,18 @@
         <v>56</v>
       </c>
       <c r="AD1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>417</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5262,12 +5675,18 @@
         <v>174</v>
       </c>
       <c r="AD2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AF2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>434</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5354,12 +5773,18 @@
         <v>175</v>
       </c>
       <c r="AD3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5443,12 +5868,18 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>435</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5519,13 +5950,16 @@
       <c r="AC5" t="s">
         <v>568</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>436</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5590,13 +6024,16 @@
       <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>437</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5655,13 +6092,16 @@
       <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>438</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5679,7 +6119,7 @@
         <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>670</v>
       </c>
       <c r="K8" t="s">
         <v>529</v>
@@ -5717,13 +6157,16 @@
       <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>439</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5741,7 +6184,7 @@
         <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5773,10 +6216,13 @@
       <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5791,7 +6237,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>570</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>504</v>
@@ -5817,10 +6263,10 @@
       <c r="AC10" t="s">
         <v>569</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5835,7 +6281,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -5855,10 +6301,10 @@
       <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5873,7 +6319,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
+        <v>571</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -5893,10 +6339,10 @@
       <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5911,7 +6357,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="L13" t="s">
         <v>505</v>
@@ -5931,10 +6377,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5949,7 +6395,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>393</v>
@@ -5966,10 +6412,10 @@
       <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5984,7 +6430,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -6001,10 +6447,10 @@
       <c r="AA15" t="s">
         <v>580</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6019,7 +6465,7 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -6036,10 +6482,10 @@
       <c r="AA16" t="s">
         <v>562</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6053,6 +6499,9 @@
       <c r="H17" t="s">
         <v>314</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>506</v>
       </c>
@@ -6065,10 +6514,10 @@
       <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>464</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6082,6 +6531,9 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
+      <c r="I18" t="s">
+        <v>671</v>
+      </c>
       <c r="L18" t="s">
         <v>81</v>
       </c>
@@ -6094,7 +6546,7 @@
       <c r="AA18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6103,7 +6555,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>418</v>
+        <v>650</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -6117,7 +6569,7 @@
       <c r="AA19" t="s">
         <v>502</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6126,7 +6578,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6140,7 +6592,7 @@
       <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6149,7 +6601,7 @@
         <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>585</v>
+        <v>418</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6163,7 +6615,7 @@
       <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6172,7 +6624,7 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6183,7 +6635,7 @@
       <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6192,7 +6644,7 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>585</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6203,7 +6655,7 @@
       <c r="AA23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6212,7 +6664,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>586</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6223,7 +6675,7 @@
       <c r="AA24" t="s">
         <v>483</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6232,7 +6684,7 @@
         <v>399</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6243,7 +6695,7 @@
       <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6252,18 +6704,18 @@
         <v>573</v>
       </c>
       <c r="F26" t="s">
-        <v>587</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="L26" t="s">
         <v>395</v>
       </c>
       <c r="AA26" t="s">
-        <v>542</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6272,18 +6724,18 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>538</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>653</v>
       </c>
       <c r="L27" t="s">
         <v>589</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH27" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6292,16 +6744,16 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>587</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>523</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6309,898 +6761,959 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>538</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>648</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
         <v>443</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="F31" t="s">
-        <v>450</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33" t="s">
+        <v>450</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>469</v>
-      </c>
-      <c r="H34" t="s">
-        <v>508</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>470</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>508</v>
       </c>
       <c r="AA36" t="s">
-        <v>543</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="AA42" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>539</v>
+        <v>654</v>
       </c>
       <c r="AA43" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>588</v>
       </c>
-      <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>581</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>211</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>350</v>
+        <v>655</v>
       </c>
       <c r="AA54" t="s">
-        <v>531</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>265</v>
+        <v>657</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>289</v>
+        <v>658</v>
       </c>
       <c r="AA57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>484</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>540</v>
+        <v>362</v>
       </c>
       <c r="AA59" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA60" t="s">
-        <v>129</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AA62" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>307</v>
+        <v>540</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>364</v>
+        <v>659</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>660</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>310</v>
+        <v>661</v>
       </c>
       <c r="AA69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="AA70" t="s">
-        <v>441</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>527</v>
+        <v>662</v>
       </c>
       <c r="AA71" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>311</v>
+        <v>663</v>
       </c>
       <c r="AA72" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>392</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA74" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>509</v>
+        <v>364</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AA79" t="s">
-        <v>628</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>288</v>
+        <v>527</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="AA82" t="s">
-        <v>455</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="AA83" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>267</v>
+        <v>664</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>278</v>
+        <v>665</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>273</v>
+        <v>509</v>
       </c>
       <c r="AA87" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>285</v>
+        <v>666</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>269</v>
+        <v>667</v>
       </c>
       <c r="AA91" t="s">
-        <v>485</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
-        <v>560</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>302</v>
+        <v>420</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>454</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA97" t="s">
-        <v>546</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>629</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>630</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>510</v>
+        <v>629</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>376</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>564</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>565</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>153</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>566</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>582</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>631</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>567</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>166</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>167</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>632</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>633</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>635</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt.xlsx
@@ -25,42 +25,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6255" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7036" uniqueCount="771">
   <si>
     <t>description</t>
   </si>
@@ -2130,6 +2133,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2398,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3177,8 +3438,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3195,6 +3563,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4467,7 +4971,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4957,106 +5461,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5471,7 +6026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5502,87 +6057,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>686</v>
+      </c>
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>512</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>477</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>687</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>403</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>415</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>416</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>351</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>399</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>573</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>648</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>649</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>417</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5606,87 +6173,99 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>451</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>637</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>467</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>312</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O2" t="s">
         <v>387</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>421</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>513</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>480</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>642</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>710</v>
+      </c>
+      <c r="U2" t="s">
         <v>423</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>251</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>575</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>404</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>427</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>428</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>374</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>400</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>577</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>766</v>
+      </c>
+      <c r="AI2" t="s">
         <v>677</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>434</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5707,84 +6286,96 @@
         <v>458</v>
       </c>
       <c r="G3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H3" t="s">
         <v>359</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>346</v>
       </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
       <c r="M3" t="s">
+        <v>696</v>
+      </c>
+      <c r="N3" t="s">
+        <v>697</v>
+      </c>
+      <c r="O3" t="s">
         <v>331</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>514</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>643</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>711</v>
+      </c>
+      <c r="U3" t="s">
         <v>424</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>238</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>576</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>405</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>429</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>375</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>401</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>578</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>592</v>
+      </c>
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
-        <v>675</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI3" t="s">
         <v>678</v>
       </c>
-      <c r="AF3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>768</v>
+      </c>
+      <c r="AK3" t="s">
         <v>182</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5802,84 +6393,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>390</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>452</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>478</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>347</v>
       </c>
-      <c r="L4" t="s">
-        <v>556</v>
-      </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>515</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>422</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>712</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>239</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>215</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>406</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>430</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>352</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>402</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>579</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE4" t="s">
         <v>557</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
-        <v>676</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>674</v>
+      </c>
+      <c r="AI4" t="s">
         <v>679</v>
       </c>
-      <c r="AF4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" t="s">
         <v>435</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5897,69 +6500,84 @@
         <v>459</v>
       </c>
       <c r="G5" t="s">
+        <v>691</v>
+      </c>
+      <c r="H5" t="s">
         <v>442</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>545</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>456</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>479</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>348</v>
       </c>
-      <c r="L5" t="s">
-        <v>236</v>
+      <c r="M5" t="s">
+        <v>556</v>
       </c>
       <c r="N5" t="s">
+        <v>698</v>
+      </c>
+      <c r="P5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>524</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>644</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>580</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>240</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>216</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>407</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>431</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>353</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE5" t="s">
         <v>551</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>568</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>675</v>
+      </c>
+      <c r="AI5" t="s">
         <v>680</v>
       </c>
-      <c r="AF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" t="s">
         <v>436</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5977,69 +6595,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H6" t="s">
         <v>503</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>449</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>526</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>572</v>
       </c>
-      <c r="L6" t="s">
-        <v>463</v>
+      <c r="M6" t="s">
+        <v>236</v>
       </c>
       <c r="N6" t="s">
+        <v>699</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>519</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>562</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>241</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>217</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>408</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>355</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI6" t="s">
         <v>681</v>
       </c>
-      <c r="AF6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK6" t="s">
         <v>437</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>685</v>
       </c>
       <c r="B7" t="s">
         <v>371</v>
@@ -6047,67 +6680,79 @@
       <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I7" t="s">
         <v>391</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>555</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>345</v>
       </c>
-      <c r="L7" t="s">
-        <v>638</v>
+      <c r="M7" t="s">
+        <v>463</v>
       </c>
       <c r="N7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
         <v>312</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>520</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>242</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>218</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>409</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>354</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>447</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>178</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>682</v>
       </c>
-      <c r="AF7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK7" t="s">
         <v>438</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>372</v>
@@ -6115,64 +6760,73 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>360</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>670</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>529</v>
       </c>
-      <c r="L8" t="s">
-        <v>72</v>
+      <c r="M8" t="s">
+        <v>638</v>
       </c>
       <c r="N8" t="s">
+        <v>700</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>521</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>713</v>
+      </c>
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>394</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>410</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>356</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>179</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>683</v>
       </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK8" t="s">
         <v>439</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -6180,1541 +6834,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>361</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>72</v>
       </c>
       <c r="N9" t="s">
+        <v>701</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>525</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>426</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>411</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>357</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>684</v>
       </c>
-      <c r="AF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL9" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>312</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>303</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>326</v>
       </c>
-      <c r="L10" t="s">
-        <v>504</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>702</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>516</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>714</v>
+      </c>
+      <c r="U10" t="s">
         <v>425</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>245</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>412</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>569</v>
       </c>
-      <c r="AF10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>636</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>349</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>570</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
+      <c r="M11" t="s">
+        <v>504</v>
       </c>
       <c r="N11" t="s">
+        <v>703</v>
+      </c>
+      <c r="P11" t="s">
         <v>472</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>517</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>502</v>
+      </c>
+      <c r="U11" t="s">
         <v>93</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>590</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>550</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>271</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>571</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>80</v>
       </c>
       <c r="N12" t="s">
+        <v>704</v>
+      </c>
+      <c r="P12" t="s">
         <v>530</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>574</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>715</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>246</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE12" t="s">
         <v>101</v>
       </c>
-      <c r="AF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>260</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>453</v>
       </c>
-      <c r="L13" t="s">
-        <v>505</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>705</v>
+      </c>
+      <c r="P13" t="s">
         <v>444</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>518</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>716</v>
+      </c>
+      <c r="U13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>645</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE13" t="s">
         <v>323</v>
       </c>
-      <c r="AF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL13" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>686</v>
       </c>
       <c r="F14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
-        <v>393</v>
+      <c r="M14" t="s">
+        <v>505</v>
       </c>
       <c r="N14" t="s">
+        <v>706</v>
+      </c>
+      <c r="P14" t="s">
         <v>473</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>717</v>
+      </c>
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>247</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE14" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>770</v>
+      </c>
+      <c r="AL14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>261</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>320</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>393</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>707</v>
+      </c>
+      <c r="P15" t="s">
+        <v>709</v>
+      </c>
+      <c r="T15" t="s">
+        <v>718</v>
+      </c>
+      <c r="U15" t="s">
         <v>500</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>561</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE15" t="s">
         <v>580</v>
       </c>
-      <c r="AF15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>262</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>321</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>541</v>
-      </c>
-      <c r="R16" t="s">
+        <v>708</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>719</v>
+      </c>
+      <c r="U16" t="s">
         <v>501</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>252</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE16" t="s">
         <v>562</v>
       </c>
-      <c r="AF16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>512</v>
       </c>
       <c r="F17" t="s">
         <v>388</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>314</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
-        <v>506</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>541</v>
+      </c>
+      <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s">
         <v>248</v>
       </c>
-      <c r="AA17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>755</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
         <v>389</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>671</v>
       </c>
-      <c r="L18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>506</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>720</v>
+      </c>
+      <c r="V18" t="s">
         <v>249</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE18" t="s">
         <v>75</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL18" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>650</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>721</v>
+      </c>
+      <c r="V19" t="s">
         <v>646</v>
       </c>
-      <c r="AA19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>756</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL19" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>687</v>
       </c>
       <c r="F20" t="s">
         <v>651</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>293</v>
       </c>
-      <c r="L20" t="s">
-        <v>457</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" t="s">
+        <v>722</v>
+      </c>
+      <c r="V20" t="s">
         <v>250</v>
       </c>
-      <c r="AA20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>502</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>418</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>294</v>
       </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>457</v>
+      </c>
+      <c r="T21" t="s">
+        <v>723</v>
+      </c>
+      <c r="V21" t="s">
         <v>647</v>
       </c>
-      <c r="AA21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
         <v>584</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
-      <c r="L22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>585</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="L23" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL23" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
         <v>586</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>287</v>
       </c>
-      <c r="L24" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>554</v>
+      </c>
+      <c r="T24" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>276</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>471</v>
+      </c>
+      <c r="T25" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL25" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>573</v>
+        <v>416</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>652</v>
       </c>
-      <c r="L26" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>672</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>483</v>
+      </c>
+      <c r="AL26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>653</v>
       </c>
-      <c r="L27" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>395</v>
+      </c>
+      <c r="T27" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="F28" t="s">
         <v>587</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>76</v>
       </c>
-      <c r="L28" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>109</v>
+      <c r="M28" t="s">
+        <v>589</v>
+      </c>
+      <c r="T28" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>573</v>
       </c>
       <c r="F29" t="s">
         <v>538</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>279</v>
       </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>110</v>
+      <c r="M29" t="s">
+        <v>523</v>
+      </c>
+      <c r="T29" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>111</v>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>649</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>280</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>112</v>
+      <c r="M31" t="s">
+        <v>443</v>
+      </c>
+      <c r="T31" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>324</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>450</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>214</v>
       </c>
-      <c r="AA33" t="s">
-        <v>113</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>648</v>
       </c>
       <c r="F34" t="s">
         <v>223</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>272</v>
       </c>
-      <c r="AA34" t="s">
-        <v>114</v>
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>649</v>
+      </c>
       <c r="F35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>282</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
+      <c r="T35" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" t="s">
         <v>469</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>508</v>
       </c>
-      <c r="AA36" t="s">
-        <v>116</v>
+      <c r="T36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>417</v>
+      </c>
       <c r="F37" t="s">
         <v>470</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>257</v>
       </c>
-      <c r="AA37" t="s">
-        <v>543</v>
+      <c r="T37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
       <c r="F38" t="s">
         <v>419</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>327</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
+      <c r="T38" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
-        <v>118</v>
+      <c r="T39" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>258</v>
       </c>
-      <c r="AA40" t="s">
-        <v>208</v>
+      <c r="T40" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>66</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>305</v>
       </c>
-      <c r="AA41" t="s">
-        <v>119</v>
+      <c r="T41" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>264</v>
       </c>
-      <c r="AA42" t="s">
-        <v>335</v>
+      <c r="T42" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>654</v>
       </c>
-      <c r="AA43" t="s">
-        <v>432</v>
+      <c r="T43" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" t="s">
-        <v>552</v>
+      <c r="T44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>210</v>
       </c>
-      <c r="AA45" t="s">
-        <v>396</v>
+      <c r="T45" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>539</v>
       </c>
-      <c r="AA46" t="s">
-        <v>120</v>
+      <c r="T46" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>588</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>286</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="T48" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="T50" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE51" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE56" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>655</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE59" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>657</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE60" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE62" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE64" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE65" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE68" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>659</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>660</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>661</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>662</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE76" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE77" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE78" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE79" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE80" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE81" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE85" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>664</v>
+      </c>
+      <c r="AE86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE88" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>664</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE89" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE90" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE94" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE95" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE97" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE98" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE99" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE100" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE102" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE103" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE105" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE106" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE109" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE110" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE111" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE112" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE113" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
